--- a/user-data/uganda-population-rural-urban/uganda-population-rural-urban.xlsx
+++ b/user-data/uganda-population-rural-urban/uganda-population-rural-urban.xlsx
@@ -711,7 +711,7 @@
     <t xml:space="preserve">Units of measure: %</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 27</t>
+    <t xml:space="preserve">Source: 28</t>
   </si>
   <si>
     <t xml:space="preserve"/>
